--- a/biology/Botanique/Cephalotus_follicularis/Cephalotus_follicularis.xlsx
+++ b/biology/Botanique/Cephalotus_follicularis/Cephalotus_follicularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalotus follicularis (du grec κεφαλή - kephalê, « tête ») est une espèce de plantes carnivores à piège passif du sud-ouest de l'Australie. C'est l'unique espèce de la famille des Cephalotaceae. Il existe également une variante « géante » de la même espèce. La classification phylogénétique situe cette famille dans l'ordre des Oxalidales.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalotus follicularis est une plante vivace terrestre qui peut atteindre 60 cm de diamètre. Cette plante carnivore vit dans un climat de type méditerranéen atténué par la proximité de l'océan.
 Les feuilles ont deux formes : soit simples et lancéolées ; soit en forme d'urne pour piéger les insectes.
-L'inflorescence peut mesurer 60 cm de haut et porte des petites fleurs blanches sans pétales[1].
+L'inflorescence peut mesurer 60 cm de haut et porte des petites fleurs blanches sans pétales.
 Ce sont des plantes herbacées carnivores à mécanisme passif. Cette plante se nomme également "cruche à eau d'Albany", en référence à la forme de ses pièges et à sa répartition géographique.
 Il est fréquent de trouver des amas de cephalotus car ils produisent beaucoup de rejets qui, dans la nature ne sont pas séparée du plant mère, cela forme d'importants amas d'urnes. 
 Elle utilise un système d'urnes semblable aux urnes de Népenthacées mais contrairement à celles-ci, elle produit également des feuilles ordinaires à seul but photosynthétique.
@@ -549,7 +563,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa répartition naturelle est localisée à une petite zone de l'Australie, globalement d'Albany à Augusta. Cette espèce pousse dans des pentes sablo-terreuses proches de la plage et dans des marais tourbeux.
 </t>
@@ -580,7 +596,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De nombreux cultivars sont connus parmi lesquels :
 ‘Hummer's Giant’ (forme géante)
